--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H2">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I2">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J2">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.801147666666667</v>
+        <v>14.9419</v>
       </c>
       <c r="N2">
-        <v>29.403443</v>
+        <v>44.8257</v>
       </c>
       <c r="O2">
-        <v>0.9702468068346347</v>
+        <v>0.9802815267721257</v>
       </c>
       <c r="P2">
-        <v>0.9702468068346346</v>
+        <v>0.9802815267721257</v>
       </c>
       <c r="Q2">
-        <v>11.41126387010056</v>
+        <v>60.60266792656667</v>
       </c>
       <c r="R2">
-        <v>102.701374830905</v>
+        <v>545.4240113391</v>
       </c>
       <c r="S2">
-        <v>0.2008902357133933</v>
+        <v>0.4669431430820906</v>
       </c>
       <c r="T2">
-        <v>0.2008902357133933</v>
+        <v>0.4669431430820906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H3">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I3">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J3">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.425943</v>
       </c>
       <c r="O3">
-        <v>0.01405515114823678</v>
+        <v>0.009314836229169864</v>
       </c>
       <c r="P3">
-        <v>0.01405515114823678</v>
+        <v>0.009314836229169864</v>
       </c>
       <c r="Q3">
-        <v>0.165305402045</v>
+        <v>0.575858986801</v>
       </c>
       <c r="R3">
-        <v>1.487748618405</v>
+        <v>5.182730881209</v>
       </c>
       <c r="S3">
-        <v>0.002910128234658433</v>
+        <v>0.004436989566115307</v>
       </c>
       <c r="T3">
-        <v>0.002910128234658433</v>
+        <v>0.004436989566115307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H4">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I4">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J4">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.475731</v>
       </c>
       <c r="O4">
-        <v>0.01569804201712866</v>
+        <v>0.01040363699870454</v>
       </c>
       <c r="P4">
-        <v>0.01569804201712866</v>
+        <v>0.01040363699870454</v>
       </c>
       <c r="Q4">
-        <v>0.184627765265</v>
+        <v>0.643170498517</v>
       </c>
       <c r="R4">
-        <v>1.661649887385</v>
+        <v>5.788534486653001</v>
       </c>
       <c r="S4">
-        <v>0.003250289863203036</v>
+        <v>0.00495562430484267</v>
       </c>
       <c r="T4">
-        <v>0.003250289863203037</v>
+        <v>0.004955624304842669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>11.659381</v>
       </c>
       <c r="I5">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J5">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.801147666666667</v>
+        <v>14.9419</v>
       </c>
       <c r="N5">
-        <v>29.403443</v>
+        <v>44.8257</v>
       </c>
       <c r="O5">
-        <v>0.9702468068346347</v>
+        <v>0.9802815267721257</v>
       </c>
       <c r="P5">
-        <v>0.9702468068346346</v>
+        <v>0.9802815267721257</v>
       </c>
       <c r="Q5">
-        <v>38.09177162764256</v>
+        <v>58.07110165463333</v>
       </c>
       <c r="R5">
-        <v>342.825944648783</v>
+        <v>522.6399148917</v>
       </c>
       <c r="S5">
-        <v>0.6705887330384225</v>
+        <v>0.4474374422213705</v>
       </c>
       <c r="T5">
-        <v>0.6705887330384225</v>
+        <v>0.4474374422213705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.659381</v>
       </c>
       <c r="I6">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J6">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.425943</v>
       </c>
       <c r="O6">
-        <v>0.01405515114823678</v>
+        <v>0.009314836229169864</v>
       </c>
       <c r="P6">
-        <v>0.01405515114823678</v>
+        <v>0.009314836229169864</v>
       </c>
       <c r="Q6">
         <v>0.551803524587</v>
@@ -818,10 +818,10 @@
         <v>4.966231721283</v>
       </c>
       <c r="S6">
-        <v>0.009714256140567782</v>
+        <v>0.004251642393807508</v>
       </c>
       <c r="T6">
-        <v>0.009714256140567784</v>
+        <v>0.004251642393807508</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.659381</v>
       </c>
       <c r="I7">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J7">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.475731</v>
       </c>
       <c r="O7">
-        <v>0.01569804201712866</v>
+        <v>0.01040363699870454</v>
       </c>
       <c r="P7">
-        <v>0.01569804201712866</v>
+        <v>0.01040363699870454</v>
       </c>
       <c r="Q7">
         <v>0.616303220279</v>
@@ -880,10 +880,10 @@
         <v>5.546728982511</v>
       </c>
       <c r="S7">
-        <v>0.01084974465599494</v>
+        <v>0.004748612109245697</v>
       </c>
       <c r="T7">
-        <v>0.01084974465599494</v>
+        <v>0.004748612109245696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H8">
         <v>1.717255</v>
       </c>
       <c r="I8">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J8">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.801147666666667</v>
+        <v>14.9419</v>
       </c>
       <c r="N8">
-        <v>29.403443</v>
+        <v>44.8257</v>
       </c>
       <c r="O8">
-        <v>0.9702468068346347</v>
+        <v>0.9802815267721257</v>
       </c>
       <c r="P8">
-        <v>0.9702468068346346</v>
+        <v>0.9802815267721257</v>
       </c>
       <c r="Q8">
-        <v>5.610356612107221</v>
+        <v>8.553017494833332</v>
       </c>
       <c r="R8">
-        <v>50.49320950896499</v>
+        <v>76.9771574535</v>
       </c>
       <c r="S8">
-        <v>0.09876783808281898</v>
+        <v>0.06590094146866456</v>
       </c>
       <c r="T8">
-        <v>0.09876783808281898</v>
+        <v>0.06590094146866454</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H9">
         <v>1.717255</v>
       </c>
       <c r="I9">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J9">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.425943</v>
       </c>
       <c r="O9">
-        <v>0.01405515114823678</v>
+        <v>0.009314836229169864</v>
       </c>
       <c r="P9">
-        <v>0.01405515114823678</v>
+        <v>0.009314836229169864</v>
       </c>
       <c r="Q9">
-        <v>0.08127252738499999</v>
+        <v>0.081272527385</v>
       </c>
       <c r="R9">
-        <v>0.7314527464649999</v>
+        <v>0.731452746465</v>
       </c>
       <c r="S9">
-        <v>0.001430766773010568</v>
+        <v>0.0006262042692470478</v>
       </c>
       <c r="T9">
-        <v>0.001430766773010568</v>
+        <v>0.0006262042692470477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H10">
         <v>1.717255</v>
       </c>
       <c r="I10">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J10">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,22 +1054,22 @@
         <v>0.475731</v>
       </c>
       <c r="O10">
-        <v>0.01569804201712866</v>
+        <v>0.01040363699870454</v>
       </c>
       <c r="P10">
-        <v>0.01569804201712866</v>
+        <v>0.01040363699870454</v>
       </c>
       <c r="Q10">
-        <v>0.09077238204499999</v>
+        <v>0.090772382045</v>
       </c>
       <c r="R10">
-        <v>0.816951438405</v>
+        <v>0.8169514384050001</v>
       </c>
       <c r="S10">
-        <v>0.001598007497930686</v>
+        <v>0.0006994005846161748</v>
       </c>
       <c r="T10">
-        <v>0.001598007497930687</v>
+        <v>0.0006994005846161745</v>
       </c>
     </row>
   </sheetData>
